--- a/biology/Zoologie/Dino_Crisis_(jeu_vidéo)/Dino_Crisis_(jeu_vidéo).xlsx
+++ b/biology/Zoologie/Dino_Crisis_(jeu_vidéo)/Dino_Crisis_(jeu_vidéo).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dino_Crisis_(jeu_vid%C3%A9o)</t>
+          <t>Dino_Crisis_(jeu_vidéo)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dino Crisis est un jeu vidéo d'action de type survival horror développé par Capcom Production Studio 4 et édité par Capcom en 1999 sur PlayStation. Premier jeu de la série éponyme, il sort en 2000 sur Dreamcast et PC. Il est créé par Shinji Mikami, le créateur de la série Resident Evil.
 Un portage sur émulateur, réalisé par Sony Interactive Entertainment, est sorti le 21 décembre 2006 sur le PlayStation Network pour Playstation 3, PSP et PS Vita.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dino_Crisis_(jeu_vid%C3%A9o)</t>
+          <t>Dino_Crisis_(jeu_vidéo)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,16 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire se déroule en 2009 sur l'île Ibis.
 Le docteur Edward Kirk, jeune scientifique reconnu, travaillait sur un projet basé sur une technique d'énergie pure appelée la « Tri-Énergie ». Cependant, le gouvernement, jugeant le projet non productif et finalement trop insignifiant, décida de cesser de le financer.
 Peu après, une dramatique explosion eu lieu au centre de recherche du docteur Kirk, qui périt en même temps que le reste de l'équipe scientifique.
 Mais trois années plus tard, Tom, un agent, fut envoyé en espion sur l'île d'Ibis et contacta ses employeurs pour leur communiquer des informations inattendues : le docteur Kirk aurait survécu et continuerait ses recherches sur la Tri-Énergie dans un centre militaire de la République de Borginie.
 Un corps expéditionnaire spécial, composé de quatre soldats d'élite surentraînés, est alors envoyé sur l'île d'Ibis en pleine nuit, avec pour mission d'infiltrer le centre militaire, d'intercepter le docteur Kirk et de le ramener dans son pays d'origine.
-Les quatre agents, Regina, Gail, Rick et Cooper sont parachutés sur les plages de l'île. Mais arrivés dans le centre, ils remarquent que quelque chose cloche : l'endroit semble désert et l'électricité est coupée. De plus, Cooper n'a pas rejoint le point de ralliement et reste incontactable (il est poursuivi et dévoré par un tyrannosaure en pleine jungle)[1].
+Les quatre agents, Regina, Gail, Rick et Cooper sont parachutés sur les plages de l'île. Mais arrivés dans le centre, ils remarquent que quelque chose cloche : l'endroit semble désert et l'électricité est coupée. De plus, Cooper n'a pas rejoint le point de ralliement et reste incontactable (il est poursuivi et dévoré par un tyrannosaure en pleine jungle).
 Les trois agents se rendent alors compte que le centre et ses alentours sont infestés de créatures préhistoriques hostiles et agressives ayant tué toute l'équipe scientifique. Mais entre le devoir de compléter la mission des uns, et l'envie de survivre des autres, des tensions se créent.
 </t>
         </is>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dino_Crisis_(jeu_vid%C3%A9o)</t>
+          <t>Dino_Crisis_(jeu_vidéo)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Système de jeu</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gameplay est quasiment le même que celui de la série Resident Evil.
 Vous progressez dans un environnement en 3D. Vous avancez avec la croix multi-directionnelle ou le stick analogique gauche.
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dino_Crisis_(jeu_vid%C3%A9o)</t>
+          <t>Dino_Crisis_(jeu_vidéo)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,9 +603,11 @@
           <t>Développement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Surfant sur la popularité de Jurassic Park, le jeu s'inspire également de Resident Evil[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Surfant sur la popularité de Jurassic Park, le jeu s'inspire également de Resident Evil.
 </t>
         </is>
       </c>
@@ -600,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dino_Crisis_(jeu_vid%C3%A9o)</t>
+          <t>Dino_Crisis_(jeu_vidéo)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,10 +636,12 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Gamekult : 7/10 (PS)[2] - 4/10 (PC)[3]
-Jeuxvideo.com : 17/20 (PS)[4] - 16/20 (PC)[5]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Gamekult : 7/10 (PS) - 4/10 (PC)
+Jeuxvideo.com : 17/20 (PS) - 16/20 (PC)</t>
         </is>
       </c>
     </row>
